--- a/natmiOut/OldD4/LR-pairs_lrc2p/Cadm1-Cadm1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Cadm1-Cadm1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.21838761681218</v>
+        <v>2.515984</v>
       </c>
       <c r="H2">
-        <v>2.21838761681218</v>
+        <v>7.547952</v>
       </c>
       <c r="I2">
-        <v>0.1149278518820781</v>
+        <v>0.08781336966822693</v>
       </c>
       <c r="J2">
-        <v>0.1149278518820781</v>
+        <v>0.09884082726736673</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.21838761681218</v>
+        <v>2.515984</v>
       </c>
       <c r="N2">
-        <v>2.21838761681218</v>
+        <v>7.547952</v>
       </c>
       <c r="O2">
-        <v>0.1149278518820781</v>
+        <v>0.08781336966822693</v>
       </c>
       <c r="P2">
-        <v>0.1149278518820781</v>
+        <v>0.09884082726736673</v>
       </c>
       <c r="Q2">
-        <v>4.921243618425623</v>
+        <v>6.330175488256</v>
       </c>
       <c r="R2">
-        <v>4.921243618425623</v>
+        <v>56.97157939430399</v>
       </c>
       <c r="S2">
-        <v>0.01320841113822888</v>
+        <v>0.007711187892488678</v>
       </c>
       <c r="T2">
-        <v>0.01320841113822888</v>
+        <v>0.009769509134897427</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.21838761681218</v>
+        <v>2.515984</v>
       </c>
       <c r="H3">
-        <v>2.21838761681218</v>
+        <v>7.547952</v>
       </c>
       <c r="I3">
-        <v>0.1149278518820781</v>
+        <v>0.08781336966822693</v>
       </c>
       <c r="J3">
-        <v>0.1149278518820781</v>
+        <v>0.09884082726736673</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.6935839129988</v>
+        <v>10.10016866666667</v>
       </c>
       <c r="N3">
-        <v>6.6935839129988</v>
+        <v>30.300506</v>
       </c>
       <c r="O3">
-        <v>0.346774032943278</v>
+        <v>0.3525180783492434</v>
       </c>
       <c r="P3">
-        <v>0.346774032943278</v>
+        <v>0.3967867150797739</v>
       </c>
       <c r="Q3">
-        <v>14.84896366468976</v>
+        <v>25.41186276263467</v>
       </c>
       <c r="R3">
-        <v>14.84896366468976</v>
+        <v>228.706764863712</v>
       </c>
       <c r="S3">
-        <v>0.03985399469465591</v>
+        <v>0.0309558003288151</v>
       </c>
       <c r="T3">
-        <v>0.03985399469465591</v>
+        <v>0.03921872716718579</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.21838761681218</v>
+        <v>2.515984</v>
       </c>
       <c r="H4">
-        <v>2.21838761681218</v>
+        <v>7.547952</v>
       </c>
       <c r="I4">
-        <v>0.1149278518820781</v>
+        <v>0.08781336966822693</v>
       </c>
       <c r="J4">
-        <v>0.1149278518820781</v>
+        <v>0.09884082726736673</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.07596454241598</v>
+        <v>6.445583666666667</v>
       </c>
       <c r="N4">
-        <v>2.07596454241598</v>
+        <v>19.336751</v>
       </c>
       <c r="O4">
-        <v>0.107549349642547</v>
+        <v>0.2249650320703493</v>
       </c>
       <c r="P4">
-        <v>0.107549349642547</v>
+        <v>0.2532157683969216</v>
       </c>
       <c r="Q4">
-        <v>4.605294033836773</v>
+        <v>16.21698537599467</v>
       </c>
       <c r="R4">
-        <v>4.605294033836773</v>
+        <v>145.952868383952</v>
       </c>
       <c r="S4">
-        <v>0.01236041572573247</v>
+        <v>0.01975493752361811</v>
       </c>
       <c r="T4">
-        <v>0.01236041572573247</v>
+        <v>0.02502805602549367</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.21838761681218</v>
+        <v>2.515984</v>
       </c>
       <c r="H5">
-        <v>2.21838761681218</v>
+        <v>7.547952</v>
       </c>
       <c r="I5">
-        <v>0.1149278518820781</v>
+        <v>0.08781336966822693</v>
       </c>
       <c r="J5">
-        <v>0.1149278518820781</v>
+        <v>0.09884082726736673</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.31450089569236</v>
+        <v>9.589755</v>
       </c>
       <c r="N5">
-        <v>8.31450089569236</v>
+        <v>19.17951</v>
       </c>
       <c r="O5">
-        <v>0.430748765532097</v>
+        <v>0.3347035199121805</v>
       </c>
       <c r="P5">
-        <v>0.430748765532097</v>
+        <v>0.2511566892559376</v>
       </c>
       <c r="Q5">
-        <v>18.44478582697771</v>
+        <v>24.12767014392</v>
       </c>
       <c r="R5">
-        <v>18.44478582697771</v>
+        <v>144.76602086352</v>
       </c>
       <c r="S5">
-        <v>0.04950503032346082</v>
+        <v>0.02939144392330506</v>
       </c>
       <c r="T5">
-        <v>0.04950503032346082</v>
+        <v>0.02482453493978984</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.6935839129988</v>
+        <v>10.10016866666667</v>
       </c>
       <c r="H6">
-        <v>6.6935839129988</v>
+        <v>30.300506</v>
       </c>
       <c r="I6">
-        <v>0.346774032943278</v>
+        <v>0.3525180783492434</v>
       </c>
       <c r="J6">
-        <v>0.346774032943278</v>
+        <v>0.3967867150797739</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.21838761681218</v>
+        <v>2.515984</v>
       </c>
       <c r="N6">
-        <v>2.21838761681218</v>
+        <v>7.547952</v>
       </c>
       <c r="O6">
-        <v>0.1149278518820781</v>
+        <v>0.08781336966822693</v>
       </c>
       <c r="P6">
-        <v>0.1149278518820781</v>
+        <v>0.09884082726736673</v>
       </c>
       <c r="Q6">
-        <v>14.84896366468976</v>
+        <v>25.41186276263467</v>
       </c>
       <c r="R6">
-        <v>14.84896366468976</v>
+        <v>228.706764863712</v>
       </c>
       <c r="S6">
-        <v>0.03985399469465591</v>
+        <v>0.0309558003288151</v>
       </c>
       <c r="T6">
-        <v>0.03985399469465591</v>
+        <v>0.03921872716718579</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.6935839129988</v>
+        <v>10.10016866666667</v>
       </c>
       <c r="H7">
-        <v>6.6935839129988</v>
+        <v>30.300506</v>
       </c>
       <c r="I7">
-        <v>0.346774032943278</v>
+        <v>0.3525180783492434</v>
       </c>
       <c r="J7">
-        <v>0.346774032943278</v>
+        <v>0.3967867150797739</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.6935839129988</v>
+        <v>10.10016866666667</v>
       </c>
       <c r="N7">
-        <v>6.6935839129988</v>
+        <v>30.300506</v>
       </c>
       <c r="O7">
-        <v>0.346774032943278</v>
+        <v>0.3525180783492434</v>
       </c>
       <c r="P7">
-        <v>0.346774032943278</v>
+        <v>0.3967867150797739</v>
       </c>
       <c r="Q7">
-        <v>44.80406560035633</v>
+        <v>102.0134070951151</v>
       </c>
       <c r="R7">
-        <v>44.80406560035633</v>
+        <v>918.1206638560359</v>
       </c>
       <c r="S7">
-        <v>0.1202522299237456</v>
+        <v>0.1242689955630433</v>
       </c>
       <c r="T7">
-        <v>0.1202522299237456</v>
+        <v>0.1574396972637976</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.6935839129988</v>
+        <v>10.10016866666667</v>
       </c>
       <c r="H8">
-        <v>6.6935839129988</v>
+        <v>30.300506</v>
       </c>
       <c r="I8">
-        <v>0.346774032943278</v>
+        <v>0.3525180783492434</v>
       </c>
       <c r="J8">
-        <v>0.346774032943278</v>
+        <v>0.3967867150797739</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.07596454241598</v>
+        <v>6.445583666666667</v>
       </c>
       <c r="N8">
-        <v>2.07596454241598</v>
+        <v>19.336751</v>
       </c>
       <c r="O8">
-        <v>0.107549349642547</v>
+        <v>0.2249650320703493</v>
       </c>
       <c r="P8">
-        <v>0.107549349642547</v>
+        <v>0.2532157683969216</v>
       </c>
       <c r="Q8">
-        <v>13.89564286507152</v>
+        <v>65.10148218844512</v>
       </c>
       <c r="R8">
-        <v>13.89564286507152</v>
+        <v>585.913339696006</v>
       </c>
       <c r="S8">
-        <v>0.03729532171597272</v>
+        <v>0.07930424080121543</v>
       </c>
       <c r="T8">
-        <v>0.03729532171597272</v>
+        <v>0.1004726529486153</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.6935839129988</v>
+        <v>10.10016866666667</v>
       </c>
       <c r="H9">
-        <v>6.6935839129988</v>
+        <v>30.300506</v>
       </c>
       <c r="I9">
-        <v>0.346774032943278</v>
+        <v>0.3525180783492434</v>
       </c>
       <c r="J9">
-        <v>0.346774032943278</v>
+        <v>0.3967867150797739</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.31450089569236</v>
+        <v>9.589755</v>
       </c>
       <c r="N9">
-        <v>8.31450089569236</v>
+        <v>19.17951</v>
       </c>
       <c r="O9">
-        <v>0.430748765532097</v>
+        <v>0.3347035199121805</v>
       </c>
       <c r="P9">
-        <v>0.430748765532097</v>
+        <v>0.2511566892559376</v>
       </c>
       <c r="Q9">
-        <v>55.6538094400205</v>
+        <v>96.85814297201</v>
       </c>
       <c r="R9">
-        <v>55.6538094400205</v>
+        <v>581.14885783206</v>
       </c>
       <c r="S9">
-        <v>0.1493724866089037</v>
+        <v>0.1179890416561696</v>
       </c>
       <c r="T9">
-        <v>0.1493724866089037</v>
+        <v>0.09965563770017503</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.07596454241598</v>
+        <v>6.445583666666667</v>
       </c>
       <c r="H10">
-        <v>2.07596454241598</v>
+        <v>19.336751</v>
       </c>
       <c r="I10">
-        <v>0.107549349642547</v>
+        <v>0.2249650320703493</v>
       </c>
       <c r="J10">
-        <v>0.107549349642547</v>
+        <v>0.2532157683969216</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.21838761681218</v>
+        <v>2.515984</v>
       </c>
       <c r="N10">
-        <v>2.21838761681218</v>
+        <v>7.547952</v>
       </c>
       <c r="O10">
-        <v>0.1149278518820781</v>
+        <v>0.08781336966822693</v>
       </c>
       <c r="P10">
-        <v>0.1149278518820781</v>
+        <v>0.09884082726736673</v>
       </c>
       <c r="Q10">
-        <v>4.605294033836773</v>
+        <v>16.21698537599467</v>
       </c>
       <c r="R10">
-        <v>4.605294033836773</v>
+        <v>145.952868383952</v>
       </c>
       <c r="S10">
-        <v>0.01236041572573247</v>
+        <v>0.01975493752361811</v>
       </c>
       <c r="T10">
-        <v>0.01236041572573247</v>
+        <v>0.02502805602549367</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,52 +1086,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.07596454241598</v>
+        <v>6.445583666666667</v>
       </c>
       <c r="H11">
-        <v>2.07596454241598</v>
+        <v>19.336751</v>
       </c>
       <c r="I11">
-        <v>0.107549349642547</v>
+        <v>0.2249650320703493</v>
       </c>
       <c r="J11">
-        <v>0.107549349642547</v>
+        <v>0.2532157683969216</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.6935839129988</v>
+        <v>10.10016866666667</v>
       </c>
       <c r="N11">
-        <v>6.6935839129988</v>
+        <v>30.300506</v>
       </c>
       <c r="O11">
-        <v>0.346774032943278</v>
+        <v>0.3525180783492434</v>
       </c>
       <c r="P11">
-        <v>0.346774032943278</v>
+        <v>0.3967867150797739</v>
       </c>
       <c r="Q11">
-        <v>13.89564286507152</v>
+        <v>65.10148218844512</v>
       </c>
       <c r="R11">
-        <v>13.89564286507152</v>
+        <v>585.913339696006</v>
       </c>
       <c r="S11">
-        <v>0.03729532171597272</v>
+        <v>0.07930424080121543</v>
       </c>
       <c r="T11">
-        <v>0.03729532171597272</v>
+        <v>0.1004726529486153</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,52 +1148,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.07596454241598</v>
+        <v>6.445583666666667</v>
       </c>
       <c r="H12">
-        <v>2.07596454241598</v>
+        <v>19.336751</v>
       </c>
       <c r="I12">
-        <v>0.107549349642547</v>
+        <v>0.2249650320703493</v>
       </c>
       <c r="J12">
-        <v>0.107549349642547</v>
+        <v>0.2532157683969216</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.07596454241598</v>
+        <v>6.445583666666667</v>
       </c>
       <c r="N12">
-        <v>2.07596454241598</v>
+        <v>19.336751</v>
       </c>
       <c r="O12">
-        <v>0.107549349642547</v>
+        <v>0.2249650320703493</v>
       </c>
       <c r="P12">
-        <v>0.107549349642547</v>
+        <v>0.2532157683969216</v>
       </c>
       <c r="Q12">
-        <v>4.30962878136839</v>
+        <v>41.54554880400011</v>
       </c>
       <c r="R12">
-        <v>4.30962878136839</v>
+        <v>373.909939236001</v>
       </c>
       <c r="S12">
-        <v>0.01156686260853483</v>
+        <v>0.05060926565441327</v>
       </c>
       <c r="T12">
-        <v>0.01156686260853483</v>
+        <v>0.06411822536484345</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,52 +1210,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.07596454241598</v>
+        <v>6.445583666666667</v>
       </c>
       <c r="H13">
-        <v>2.07596454241598</v>
+        <v>19.336751</v>
       </c>
       <c r="I13">
-        <v>0.107549349642547</v>
+        <v>0.2249650320703493</v>
       </c>
       <c r="J13">
-        <v>0.107549349642547</v>
+        <v>0.2532157683969216</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.31450089569236</v>
+        <v>9.589755</v>
       </c>
       <c r="N13">
-        <v>8.31450089569236</v>
+        <v>19.17951</v>
       </c>
       <c r="O13">
-        <v>0.430748765532097</v>
+        <v>0.3347035199121805</v>
       </c>
       <c r="P13">
-        <v>0.430748765532097</v>
+        <v>0.2511566892559376</v>
       </c>
       <c r="Q13">
-        <v>17.26060904734325</v>
+        <v>61.81156819533501</v>
       </c>
       <c r="R13">
-        <v>17.26060904734325</v>
+        <v>370.86940917201</v>
       </c>
       <c r="S13">
-        <v>0.046326749592307</v>
+        <v>0.07529658809110247</v>
       </c>
       <c r="T13">
-        <v>0.046326749592307</v>
+        <v>0.06359683405796912</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,52 +1272,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.31450089569236</v>
+        <v>9.589755</v>
       </c>
       <c r="H14">
-        <v>8.31450089569236</v>
+        <v>19.17951</v>
       </c>
       <c r="I14">
-        <v>0.430748765532097</v>
+        <v>0.3347035199121805</v>
       </c>
       <c r="J14">
-        <v>0.430748765532097</v>
+        <v>0.2511566892559376</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.21838761681218</v>
+        <v>2.515984</v>
       </c>
       <c r="N14">
-        <v>2.21838761681218</v>
+        <v>7.547952</v>
       </c>
       <c r="O14">
-        <v>0.1149278518820781</v>
+        <v>0.08781336966822693</v>
       </c>
       <c r="P14">
-        <v>0.1149278518820781</v>
+        <v>0.09884082726736673</v>
       </c>
       <c r="Q14">
-        <v>18.44478582697771</v>
+        <v>24.12767014392</v>
       </c>
       <c r="R14">
-        <v>18.44478582697771</v>
+        <v>144.76602086352</v>
       </c>
       <c r="S14">
-        <v>0.04950503032346082</v>
+        <v>0.02939144392330506</v>
       </c>
       <c r="T14">
-        <v>0.04950503032346082</v>
+        <v>0.02482453493978984</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,52 +1334,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.31450089569236</v>
+        <v>9.589755</v>
       </c>
       <c r="H15">
-        <v>8.31450089569236</v>
+        <v>19.17951</v>
       </c>
       <c r="I15">
-        <v>0.430748765532097</v>
+        <v>0.3347035199121805</v>
       </c>
       <c r="J15">
-        <v>0.430748765532097</v>
+        <v>0.2511566892559376</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.6935839129988</v>
+        <v>10.10016866666667</v>
       </c>
       <c r="N15">
-        <v>6.6935839129988</v>
+        <v>30.300506</v>
       </c>
       <c r="O15">
-        <v>0.346774032943278</v>
+        <v>0.3525180783492434</v>
       </c>
       <c r="P15">
-        <v>0.346774032943278</v>
+        <v>0.3967867150797739</v>
       </c>
       <c r="Q15">
-        <v>55.6538094400205</v>
+        <v>96.85814297201</v>
       </c>
       <c r="R15">
-        <v>55.6538094400205</v>
+        <v>581.14885783206</v>
       </c>
       <c r="S15">
-        <v>0.1493724866089037</v>
+        <v>0.1179890416561696</v>
       </c>
       <c r="T15">
-        <v>0.1493724866089037</v>
+        <v>0.09965563770017503</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,52 +1396,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.31450089569236</v>
+        <v>9.589755</v>
       </c>
       <c r="H16">
-        <v>8.31450089569236</v>
+        <v>19.17951</v>
       </c>
       <c r="I16">
-        <v>0.430748765532097</v>
+        <v>0.3347035199121805</v>
       </c>
       <c r="J16">
-        <v>0.430748765532097</v>
+        <v>0.2511566892559376</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.07596454241598</v>
+        <v>6.445583666666667</v>
       </c>
       <c r="N16">
-        <v>2.07596454241598</v>
+        <v>19.336751</v>
       </c>
       <c r="O16">
-        <v>0.107549349642547</v>
+        <v>0.2249650320703493</v>
       </c>
       <c r="P16">
-        <v>0.107549349642547</v>
+        <v>0.2532157683969216</v>
       </c>
       <c r="Q16">
-        <v>17.26060904734325</v>
+        <v>61.81156819533501</v>
       </c>
       <c r="R16">
-        <v>17.26060904734325</v>
+        <v>370.86940917201</v>
       </c>
       <c r="S16">
-        <v>0.046326749592307</v>
+        <v>0.07529658809110247</v>
       </c>
       <c r="T16">
-        <v>0.046326749592307</v>
+        <v>0.06359683405796912</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,52 +1458,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.31450089569236</v>
+        <v>9.589755</v>
       </c>
       <c r="H17">
-        <v>8.31450089569236</v>
+        <v>19.17951</v>
       </c>
       <c r="I17">
-        <v>0.430748765532097</v>
+        <v>0.3347035199121805</v>
       </c>
       <c r="J17">
-        <v>0.430748765532097</v>
+        <v>0.2511566892559376</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.31450089569236</v>
+        <v>9.589755</v>
       </c>
       <c r="N17">
-        <v>8.31450089569236</v>
+        <v>19.17951</v>
       </c>
       <c r="O17">
-        <v>0.430748765532097</v>
+        <v>0.3347035199121805</v>
       </c>
       <c r="P17">
-        <v>0.430748765532097</v>
+        <v>0.2511566892559376</v>
       </c>
       <c r="Q17">
-        <v>69.13092514446906</v>
+        <v>91.963400960025</v>
       </c>
       <c r="R17">
-        <v>69.13092514446906</v>
+        <v>367.8536038401</v>
       </c>
       <c r="S17">
-        <v>0.1855444990074255</v>
+        <v>0.1120264462416034</v>
       </c>
       <c r="T17">
-        <v>0.1855444990074255</v>
+        <v>0.06307968255800363</v>
       </c>
     </row>
   </sheetData>
